--- a/biology/Botanique/Arboricole/Arboricole.xlsx
+++ b/biology/Botanique/Arboricole/Arboricole.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Arboricole (du latin arbor arbre et colo : cultiver, habiter) qualifie ce qui a trait aux arbres, que ce soit la vie dans les arbres ou bien la culture des arbres, l’arboriculture.
 </t>
@@ -511,22 +523,127 @@
           <t>Caractéristiques de l'arboricolisme</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Les animaux vivant dans un biotope de type arboricole présentent généralement plusieurs caractéristiques spécifiques, qui dépendent du groupe animal concerné.
-Mammifères, et principalement les primates
-membres antérieurs longs + souplesse de l’articulation de la ceinture scapulaire (Sc),
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les animaux vivant dans un biotope de type arboricole présentent généralement plusieurs caractéristiques spécifiques, qui dépendent du groupe animal concerné.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Arboricole</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arboricole</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Caractéristiques de l'arboricolisme</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Mammifères, et principalement les primates</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>membres antérieurs longs + souplesse de l’articulation de la ceinture scapulaire (Sc),
 membres postérieurs plus courts + souplesse de l’articulation de la ceinture pelvienne (Sp),
 pouces opposables (mains et pieds),
 angle important entre pouce opposable et autres phalanges (important pour la préhension),
 phalanges longues,
-présence de griffes chez de nombreuses espèces.
-Reptiles
-présence de setæ sous les doigts voire la queue (Uroplatus, Rhacodactylus…),
+présence de griffes chez de nombreuses espèces.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Arboricole</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arboricole</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Caractéristiques de l'arboricolisme</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Reptiles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>présence de setæ sous les doigts voire la queue (Uroplatus, Rhacodactylus…),
 queue partiellement préhensile (caméléons),
-souvent présence d'un mimétisme permettant un camouflage efficace.
-Oiseaux
-Plume de la queue raide (solides rectrices médianes) (pics, grimpereau...)
+souvent présence d'un mimétisme permettant un camouflage efficace.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Arboricole</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arboricole</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Caractéristiques de l'arboricolisme</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Oiseaux</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Plume de la queue raide (solides rectrices médianes) (pics, grimpereau...)
 2e et 3e doigts tourné vers l'avant et les 1er et 4e doigts à l'arrière (pattes zygodactyles)</t>
         </is>
       </c>
